--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tieu cong no tien/AR7403_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tieu cong no tien/AR7403_HT.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Chi tieu cong no tien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\ThuViec\10_DOCUMENT\13_DETAIL_DESIGN\Chi tieu cong no tien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AR7043_HT" sheetId="2" r:id="rId1"/>
-    <sheet name="Example" sheetId="1" r:id="rId2"/>
+    <sheet name="Manhhinh search" sheetId="3" r:id="rId1"/>
+    <sheet name="AR7043_HT" sheetId="2" r:id="rId2"/>
+    <sheet name="Example" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -58,42 +59,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admins</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admins:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tu tao nhom doi tuong cong no</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>TỔNG CÔNG TY</t>
   </si>
@@ -161,25 +128,92 @@
     <t>Tổng công (6) - (7)</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>AnaName1</t>
-  </si>
-  <si>
-    <t>AnaName2</t>
-  </si>
-  <si>
-    <t>AnaName3</t>
-  </si>
-  <si>
-    <t>AnaName4</t>
-  </si>
-  <si>
-    <t>AnaName5</t>
-  </si>
-  <si>
-    <t>Sum AnaName4 + AnaName5</t>
+    <t>Đổ nguồn combobox mã phân tích</t>
+  </si>
+  <si>
+    <t>select AnaID, AnaName from AT1015
+where DivisionID= @DivisionID and AnaTypeID = 'O05'
+order by AnaID</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL để load báo cáo chi tiêu công nợ tiền</t>
+  </si>
+  <si>
+    <t>exec AP7403_HT 
+@DivisionID    AS  VARCHAR(50),
+    @FromMonth        AS INT,
+    @FromYear         AS INT,
+    @ToMonth          AS INT,
+    @ToYear           AS INT,
+  @TypeD           AS TINYINT,
+    @FromDate         AS DATETIME,
+    @ToDate           AS DATETIME,
+@CurrencyID AS VARCHAR(50),
+     @FromAccountID AS varchar(50),
+     @ToAccountID AS varchar(50),
+     @FromO05ID As Varchar (50),
+     @ToO05ID as Varchar (50),
+     @Groupby AS TINYINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHỈ TIÊU CÔNG NỢ TIỀN </t>
+  </si>
+  <si>
+    <t>Từ ngày:</t>
+  </si>
+  <si>
+    <t>Đến ngày:</t>
+  </si>
+  <si>
+    <t>Theo kỳ:</t>
+  </si>
+  <si>
+    <t>Loại tiền:</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Nhóm Đối tượng</t>
+  </si>
+  <si>
+    <t>Mã ĐT</t>
+  </si>
+  <si>
+    <t>Tên Nhóm đối tượng</t>
+  </si>
+  <si>
+    <t>O05ID</t>
+  </si>
+  <si>
+    <t>O05Name</t>
+  </si>
+  <si>
+    <t>ConvertedOpening</t>
+  </si>
+  <si>
+    <t>ConvertedDebit</t>
+  </si>
+  <si>
+    <t>ConvertedCredit</t>
+  </si>
+  <si>
+    <t>ConvertedClosing</t>
+  </si>
+  <si>
+    <t>ConvertIncome</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>Tổng Công nợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công nợ Nhân viên, nhà cung cấp </t>
   </si>
 </sst>
 </file>
@@ -191,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +286,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -316,6 +363,54 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -332,14 +427,11 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -350,9 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -392,12 +481,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,6 +506,15 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -432,6 +524,91 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -452,6 +629,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="495300" y="123825"/>
+          <a:ext cx="6486525" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,254 +953,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="O4:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+    </row>
+    <row r="10" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="40"/>
+    </row>
+    <row r="13" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="40"/>
+    </row>
+    <row r="16" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+    </row>
+    <row r="18" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+    </row>
+    <row r="23" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O5:S9"/>
+    <mergeCell ref="O12:S23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>1</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
+        <v>6</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>5</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>7</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -981,317 +1467,317 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <f>677284903-57348035</f>
         <v>619936868</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>600245027</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>450404234</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f>C6+D6-E6</f>
         <v>769777661</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>597089000</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="28">
         <f>F6/$F$11</f>
         <v>0.90605487173394728</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="24">
         <f>F6/G6</f>
         <v>1.2892176224984886</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="27">
         <f>170016476-117241486</f>
         <v>52774990</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="27">
         <v>1352569652</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="27">
         <v>1325529541</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f>C7+D7-E7</f>
         <v>79815101</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>1344878623</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="28">
         <f>F7/$F$11</f>
         <v>9.3945128266052724E-2</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="24">
         <f>F7/G7</f>
         <v>5.9347438226029413E-2</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="18">
+      <c r="C8" s="15"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="16">
         <f>C8+D8-E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="32">
+      <c r="G8" s="16"/>
+      <c r="H8" s="28">
         <f>F8/$F$11</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28" t="e">
+      <c r="I8" s="24" t="e">
         <f>F8/G8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="27">
         <v>-30616000</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="27">
         <v>62105303</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="27">
         <v>31489303</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <f>C9+D9-E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <f>16922150-20007</f>
         <v>16902143</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="27">
         <f>13757000</f>
         <v>13757000</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="27">
         <v>13201000</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f>C10+D10-E10</f>
         <v>17458143</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <v>13358000</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26">
+      <c r="B11" s="37"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22">
         <f>F12-F13</f>
         <v>849592762</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="22">
         <f>SUM(G6:G8)</f>
         <v>1941967623</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24">
         <f>F11/G11</f>
         <v>0.4374906934274877</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <f>SUM(C6:C10)</f>
         <v>658998001</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f>SUM(D6:D10)</f>
         <v>2028676982</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f>SUM(E6:E10)</f>
         <v>1820624078</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f>C12+D12-E12</f>
         <v>867050905</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <f>SUM(C9:C10)</f>
         <v>-13713857</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <f>SUM(D9:D10)</f>
         <v>75862303</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f>SUM(E9:E10)</f>
         <v>44690303</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f>C13+D13-E13</f>
         <v>17458143</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tieu cong no tien/AR7403_HT.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Chi tieu cong no tien/AR7403_HT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Manhhinh search" sheetId="3" r:id="rId1"/>
@@ -139,81 +139,83 @@
     <t>Thực thi @SQL để load báo cáo chi tiêu công nợ tiền</t>
   </si>
   <si>
+    <t xml:space="preserve">CHỈ TIÊU CÔNG NỢ TIỀN </t>
+  </si>
+  <si>
+    <t>Từ ngày:</t>
+  </si>
+  <si>
+    <t>Đến ngày:</t>
+  </si>
+  <si>
+    <t>Theo kỳ:</t>
+  </si>
+  <si>
+    <t>Loại tiền:</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Nhóm Đối tượng</t>
+  </si>
+  <si>
+    <t>Mã ĐT</t>
+  </si>
+  <si>
+    <t>Tên Nhóm đối tượng</t>
+  </si>
+  <si>
+    <t>O05ID</t>
+  </si>
+  <si>
+    <t>O05Name</t>
+  </si>
+  <si>
+    <t>ConvertedOpening</t>
+  </si>
+  <si>
+    <t>ConvertedDebit</t>
+  </si>
+  <si>
+    <t>ConvertedCredit</t>
+  </si>
+  <si>
+    <t>ConvertedClosing</t>
+  </si>
+  <si>
+    <t>ConvertIncome</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>Tổng Công nợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công nợ Nhân viên, nhà cung cấp </t>
+  </si>
+  <si>
     <t>exec AP7403_HT 
-@DivisionID    AS  VARCHAR(50),
-    @FromMonth        AS INT,
-    @FromYear         AS INT,
-    @ToMonth          AS INT,
-    @ToYear           AS INT,
-  @TypeD           AS TINYINT,
-    @FromDate         AS DATETIME,
-    @ToDate           AS DATETIME,
-@CurrencyID AS VARCHAR(50),
-     @FromAccountID AS varchar(50),
-     @ToAccountID AS varchar(50),
-     @FromO05ID As Varchar (50),
-     @ToO05ID as Varchar (50),
-     @Groupby AS TINYINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHỈ TIÊU CÔNG NỢ TIỀN </t>
-  </si>
-  <si>
-    <t>Từ ngày:</t>
-  </si>
-  <si>
-    <t>Đến ngày:</t>
-  </si>
-  <si>
-    <t>Theo kỳ:</t>
-  </si>
-  <si>
-    <t>Loại tiền:</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Nhóm Đối tượng</t>
-  </si>
-  <si>
-    <t>Mã ĐT</t>
-  </si>
-  <si>
-    <t>Tên Nhóm đối tượng</t>
-  </si>
-  <si>
-    <t>O05ID</t>
-  </si>
-  <si>
-    <t>O05Name</t>
-  </si>
-  <si>
-    <t>ConvertedOpening</t>
-  </si>
-  <si>
-    <t>ConvertedDebit</t>
-  </si>
-  <si>
-    <t>ConvertedCredit</t>
-  </si>
-  <si>
-    <t>ConvertedClosing</t>
-  </si>
-  <si>
-    <t>ConvertIncome</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>Tổng Công nợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công nợ Nhân viên, nhà cung cấp </t>
+@DivisionID    AS  nVARCHAR(50),
+@FromObjectID As nVarchar(50),
+@ToObjectID as nVarchar(50),
+@FromMonth        AS INT,
+@FromYear         AS INT,
+@ToMonth          AS INT,
+@ToYear           AS INT,
+@TypeD           AS TINYINT,
+@FromDate         AS DATETIME,
+@ToDate           AS DATETIME,
+@CurrencyID AS nVARCHAR(50),
+ @FromAccountID AS nvarchar(50),
+ @ToAccountID AS nvarchar(50),
+  @FromO05ID As nVarchar (50),
+  @ToO05ID as nVarchar (50),
+  @Groupby Tinyint</t>
   </si>
 </sst>
 </file>
@@ -506,14 +508,54 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -524,27 +566,26 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,60 +596,21 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -636,19 +638,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -668,8 +670,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="495300" y="123825"/>
-          <a:ext cx="6486525" cy="3581400"/>
+          <a:off x="504825" y="161925"/>
+          <a:ext cx="6477000" cy="4438650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -956,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O4:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,154 +970,154 @@
       </c>
     </row>
     <row r="5" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="30"/>
     </row>
     <row r="7" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="30"/>
     </row>
     <row r="8" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="40"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="30"/>
     </row>
     <row r="9" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="30"/>
     </row>
     <row r="10" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
     </row>
     <row r="11" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O11" s="40" t="s">
+      <c r="O11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
     </row>
     <row r="12" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O12" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="40"/>
+      <c r="O12" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="30"/>
     </row>
     <row r="13" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="40"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="30"/>
     </row>
     <row r="14" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="40"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="30"/>
     </row>
     <row r="15" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="40"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="15:20" x14ac:dyDescent="0.25">
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
     </row>
     <row r="17" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
     </row>
     <row r="19" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
     </row>
     <row r="20" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
     </row>
     <row r="21" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
     </row>
     <row r="22" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
     </row>
     <row r="23" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1131,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1152,11 +1154,11 @@
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1165,32 +1167,32 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="A2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1198,11 +1200,11 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1216,7 +1218,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1230,7 +1232,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1253,93 +1255,93 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
     </row>
-    <row r="10" spans="1:11" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53">
+    <row r="10" spans="1:11" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="D10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="E10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="F10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="G10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="H10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="27"/>
@@ -1355,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -1374,61 +1376,56 @@
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="16"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>5</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+    <row r="15" spans="1:11" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
         <v>6</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="B15" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -1440,6 +1437,11 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1467,11 +1469,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1480,32 +1482,32 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -1694,17 +1696,17 @@
       <c r="G10" s="29">
         <v>13358000</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
